--- a/data/pca/factorExposure/factorExposure_2011-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01975830820752846</v>
+        <v>-0.01713709119176592</v>
       </c>
       <c r="C2">
-        <v>0.008430543973264154</v>
+        <v>0.005459955832250219</v>
       </c>
       <c r="D2">
-        <v>-0.04168081825751565</v>
+        <v>-0.0259102620150954</v>
       </c>
       <c r="E2">
-        <v>0.06897548350933402</v>
+        <v>-0.03902992223696243</v>
       </c>
       <c r="F2">
-        <v>0.002365063678884625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02067279150208298</v>
+      </c>
+      <c r="G2">
+        <v>-0.01796997794135454</v>
+      </c>
+      <c r="H2">
+        <v>-0.01662809936741655</v>
+      </c>
+      <c r="I2">
+        <v>0.008969159523046532</v>
+      </c>
+      <c r="J2">
+        <v>0.03775959214783032</v>
+      </c>
+      <c r="K2">
+        <v>-0.07124713566891132</v>
+      </c>
+      <c r="L2">
+        <v>0.05441606538924069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07582424952975628</v>
+        <v>-0.09245096264662103</v>
       </c>
       <c r="C4">
-        <v>0.03932823363052497</v>
+        <v>0.05147808696200637</v>
       </c>
       <c r="D4">
-        <v>-0.06329272768519405</v>
+        <v>-0.02555634752270008</v>
       </c>
       <c r="E4">
-        <v>0.02506082159047557</v>
+        <v>-0.03479286527680409</v>
       </c>
       <c r="F4">
-        <v>0.03350135728608921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08390813018293945</v>
+      </c>
+      <c r="G4">
+        <v>-0.04664438947185786</v>
+      </c>
+      <c r="H4">
+        <v>-0.005755863029405735</v>
+      </c>
+      <c r="I4">
+        <v>-0.08172775312663583</v>
+      </c>
+      <c r="J4">
+        <v>-0.01413263955676866</v>
+      </c>
+      <c r="K4">
+        <v>0.05138019276424918</v>
+      </c>
+      <c r="L4">
+        <v>-0.0268649416581191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.12095173739866</v>
+        <v>-0.1306154434289435</v>
       </c>
       <c r="C6">
-        <v>-0.0003004318123042515</v>
+        <v>0.01879721574338706</v>
       </c>
       <c r="D6">
-        <v>-0.05858783124102667</v>
+        <v>-0.06171846860560526</v>
       </c>
       <c r="E6">
-        <v>0.07651537130552762</v>
+        <v>-0.01807754256168223</v>
       </c>
       <c r="F6">
-        <v>0.04275003334147365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05554912286503997</v>
+      </c>
+      <c r="G6">
+        <v>-0.06345945432872108</v>
+      </c>
+      <c r="H6">
+        <v>0.1721775063159416</v>
+      </c>
+      <c r="I6">
+        <v>-0.08834754975983099</v>
+      </c>
+      <c r="J6">
+        <v>-0.4466955107086427</v>
+      </c>
+      <c r="K6">
+        <v>-0.02668585501144098</v>
+      </c>
+      <c r="L6">
+        <v>-0.02313711176285578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06765171898813384</v>
+        <v>-0.06886838628742246</v>
       </c>
       <c r="C7">
-        <v>0.007332098285752784</v>
+        <v>0.04900416991724792</v>
       </c>
       <c r="D7">
-        <v>-0.05235612698586573</v>
+        <v>-0.03951414434339445</v>
       </c>
       <c r="E7">
-        <v>0.05620091485959303</v>
+        <v>-0.03685197948527096</v>
       </c>
       <c r="F7">
-        <v>0.01164248758305411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04253279160289371</v>
+      </c>
+      <c r="G7">
+        <v>0.003975844247982126</v>
+      </c>
+      <c r="H7">
+        <v>-0.005780366105817473</v>
+      </c>
+      <c r="I7">
+        <v>-0.03035703418920544</v>
+      </c>
+      <c r="J7">
+        <v>0.05948743986080677</v>
+      </c>
+      <c r="K7">
+        <v>0.06053104512171059</v>
+      </c>
+      <c r="L7">
+        <v>0.03012214129663847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03197858138962415</v>
+        <v>-0.03833325413119606</v>
       </c>
       <c r="C8">
-        <v>0.03578722883027011</v>
+        <v>0.01464693580262725</v>
       </c>
       <c r="D8">
-        <v>0.01298340086419799</v>
+        <v>0.01400887383205992</v>
       </c>
       <c r="E8">
-        <v>0.05474368207090139</v>
+        <v>-0.06563448190629463</v>
       </c>
       <c r="F8">
-        <v>0.03746455756831425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02182569691092959</v>
+      </c>
+      <c r="G8">
+        <v>-0.06201544353868931</v>
+      </c>
+      <c r="H8">
+        <v>0.02282991630741361</v>
+      </c>
+      <c r="I8">
+        <v>-0.1034921209520103</v>
+      </c>
+      <c r="J8">
+        <v>0.007075807004724054</v>
+      </c>
+      <c r="K8">
+        <v>0.05209582457845277</v>
+      </c>
+      <c r="L8">
+        <v>-0.06708765968212869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.0749360613944751</v>
+        <v>-0.08457316378870916</v>
       </c>
       <c r="C9">
-        <v>0.04934640346154377</v>
+        <v>0.05057759100040461</v>
       </c>
       <c r="D9">
-        <v>-0.05612272116734958</v>
+        <v>-0.02468088101451405</v>
       </c>
       <c r="E9">
-        <v>0.02609942116728903</v>
+        <v>-0.02568314641902276</v>
       </c>
       <c r="F9">
-        <v>0.02378085483857687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06462405538988464</v>
+      </c>
+      <c r="G9">
+        <v>-0.05417631685817691</v>
+      </c>
+      <c r="H9">
+        <v>-0.007113967243495162</v>
+      </c>
+      <c r="I9">
+        <v>-0.08928786285066188</v>
+      </c>
+      <c r="J9">
+        <v>-0.00604279580838262</v>
+      </c>
+      <c r="K9">
+        <v>0.02824965219512924</v>
+      </c>
+      <c r="L9">
+        <v>-0.03691368392018242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02634468081245757</v>
+        <v>-0.0785351019526877</v>
       </c>
       <c r="C10">
-        <v>-0.1508180140500861</v>
+        <v>-0.1879102175354879</v>
       </c>
       <c r="D10">
-        <v>0.02434371815534106</v>
+        <v>-0.0003473781840493389</v>
       </c>
       <c r="E10">
-        <v>0.07293771103223477</v>
+        <v>-0.04945990632724766</v>
       </c>
       <c r="F10">
-        <v>0.03890922673544885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03378195701113847</v>
+      </c>
+      <c r="G10">
+        <v>0.04942056538140563</v>
+      </c>
+      <c r="H10">
+        <v>0.02842895660105722</v>
+      </c>
+      <c r="I10">
+        <v>0.03159298489005917</v>
+      </c>
+      <c r="J10">
+        <v>0.01776928499791587</v>
+      </c>
+      <c r="K10">
+        <v>-0.0126683215609183</v>
+      </c>
+      <c r="L10">
+        <v>0.003694718415988999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07039126984340384</v>
+        <v>-0.07254176038958478</v>
       </c>
       <c r="C11">
-        <v>0.05654045561568719</v>
+        <v>0.05787398997114741</v>
       </c>
       <c r="D11">
-        <v>-0.05044600279961377</v>
+        <v>-0.02965921828423806</v>
       </c>
       <c r="E11">
-        <v>0.03481252012890065</v>
+        <v>-0.01704659374317092</v>
       </c>
       <c r="F11">
-        <v>-0.008226856781468422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02927174096644699</v>
+      </c>
+      <c r="G11">
+        <v>-0.07398554395081106</v>
+      </c>
+      <c r="H11">
+        <v>-0.01614452918344954</v>
+      </c>
+      <c r="I11">
+        <v>-0.05510166275599123</v>
+      </c>
+      <c r="J11">
+        <v>0.06863375390868451</v>
+      </c>
+      <c r="K11">
+        <v>-0.03552770331576537</v>
+      </c>
+      <c r="L11">
+        <v>-0.03062594546152883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06510721059920928</v>
+        <v>-0.07090484146640845</v>
       </c>
       <c r="C12">
-        <v>0.04005426167301013</v>
+        <v>0.04648906801012102</v>
       </c>
       <c r="D12">
-        <v>-0.04513187792618607</v>
+        <v>-0.01463163755336654</v>
       </c>
       <c r="E12">
-        <v>0.01966930099037328</v>
+        <v>-0.01187970847505976</v>
       </c>
       <c r="F12">
-        <v>0.009904077589867739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03648190676148987</v>
+      </c>
+      <c r="G12">
+        <v>-0.06164816754386269</v>
+      </c>
+      <c r="H12">
+        <v>0.002364017888352057</v>
+      </c>
+      <c r="I12">
+        <v>-0.08207130769240881</v>
+      </c>
+      <c r="J12">
+        <v>0.06549902672581737</v>
+      </c>
+      <c r="K12">
+        <v>-0.01049715162105465</v>
+      </c>
+      <c r="L12">
+        <v>-0.01984870608062162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07406025371851992</v>
+        <v>-0.06512895043510812</v>
       </c>
       <c r="C13">
-        <v>0.02059254091714979</v>
+        <v>0.03418879022958068</v>
       </c>
       <c r="D13">
-        <v>-0.01745774094813875</v>
+        <v>0.0182831448399587</v>
       </c>
       <c r="E13">
-        <v>0.02453470490028165</v>
+        <v>-0.02658563757234084</v>
       </c>
       <c r="F13">
-        <v>0.02541127635074191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02082483704199262</v>
+      </c>
+      <c r="G13">
+        <v>-0.02899887952873736</v>
+      </c>
+      <c r="H13">
+        <v>-0.003813554437568002</v>
+      </c>
+      <c r="I13">
+        <v>-0.06937981197462564</v>
+      </c>
+      <c r="J13">
+        <v>0.03109040965635747</v>
+      </c>
+      <c r="K13">
+        <v>0.09436568310612216</v>
+      </c>
+      <c r="L13">
+        <v>-0.01547350019224045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03547135715385857</v>
+        <v>-0.04472539169994175</v>
       </c>
       <c r="C14">
-        <v>-0.005657202455042109</v>
+        <v>0.009850177107253794</v>
       </c>
       <c r="D14">
-        <v>-0.03959990377962844</v>
+        <v>-0.0266906120325076</v>
       </c>
       <c r="E14">
-        <v>0.009965219194570158</v>
+        <v>-0.006731921232335475</v>
       </c>
       <c r="F14">
-        <v>0.006042542905303021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04457034446169367</v>
+      </c>
+      <c r="G14">
+        <v>-0.0365720304775408</v>
+      </c>
+      <c r="H14">
+        <v>-0.04249939673542893</v>
+      </c>
+      <c r="I14">
+        <v>-0.06249010631797672</v>
+      </c>
+      <c r="J14">
+        <v>-0.01570547015615888</v>
+      </c>
+      <c r="K14">
+        <v>0.04725877100036317</v>
+      </c>
+      <c r="L14">
+        <v>-0.03469027590558736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05321230117783918</v>
+        <v>-0.04182070423565529</v>
       </c>
       <c r="C15">
-        <v>0.006469993261886972</v>
+        <v>0.0131069554039274</v>
       </c>
       <c r="D15">
-        <v>-0.008352880538793185</v>
+        <v>0.01882460443175708</v>
       </c>
       <c r="E15">
-        <v>0.009990222256605528</v>
+        <v>0.0009915263108759413</v>
       </c>
       <c r="F15">
-        <v>0.03593063575805033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.02628901635638523</v>
+      </c>
+      <c r="G15">
+        <v>-0.01361182764901719</v>
+      </c>
+      <c r="H15">
+        <v>-0.007626126803802496</v>
+      </c>
+      <c r="I15">
+        <v>-0.03269099357204976</v>
+      </c>
+      <c r="J15">
+        <v>-0.03395280496219803</v>
+      </c>
+      <c r="K15">
+        <v>0.06709582001771307</v>
+      </c>
+      <c r="L15">
+        <v>-0.02603048642733608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05683351897280543</v>
+        <v>-0.07208104355903207</v>
       </c>
       <c r="C16">
-        <v>0.05273142886088334</v>
+        <v>0.05774548160419275</v>
       </c>
       <c r="D16">
-        <v>-0.04330147216118659</v>
+        <v>-0.0220261853630778</v>
       </c>
       <c r="E16">
-        <v>0.02159488423791294</v>
+        <v>-0.01387663978498461</v>
       </c>
       <c r="F16">
-        <v>0.02482221889888026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0440665839809393</v>
+      </c>
+      <c r="G16">
+        <v>-0.0539397378959378</v>
+      </c>
+      <c r="H16">
+        <v>-0.01890331527671513</v>
+      </c>
+      <c r="I16">
+        <v>-0.05507508242024492</v>
+      </c>
+      <c r="J16">
+        <v>0.04914443902638667</v>
+      </c>
+      <c r="K16">
+        <v>-0.01804094636772791</v>
+      </c>
+      <c r="L16">
+        <v>-0.0321024057515626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06145826036951025</v>
+        <v>-0.05698257486997358</v>
       </c>
       <c r="C20">
-        <v>0.04418909013903047</v>
+        <v>0.03671786585700035</v>
       </c>
       <c r="D20">
-        <v>-0.02001203468138859</v>
+        <v>-0.01061284239086167</v>
       </c>
       <c r="E20">
-        <v>0.03097512397816071</v>
+        <v>-0.02350170150962505</v>
       </c>
       <c r="F20">
-        <v>0.01847218399281528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0125575107025301</v>
+      </c>
+      <c r="G20">
+        <v>-0.04241368690322175</v>
+      </c>
+      <c r="H20">
+        <v>-0.02299356654660972</v>
+      </c>
+      <c r="I20">
+        <v>-0.1172785388517518</v>
+      </c>
+      <c r="J20">
+        <v>0.03479578859955881</v>
+      </c>
+      <c r="K20">
+        <v>0.03777562937830094</v>
+      </c>
+      <c r="L20">
+        <v>0.009623557409656935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03915225157189568</v>
+        <v>-0.02806125415199786</v>
       </c>
       <c r="C21">
-        <v>0.02963059394380626</v>
+        <v>0.02334883224668187</v>
       </c>
       <c r="D21">
-        <v>0.02179026735564734</v>
+        <v>0.03894924337482793</v>
       </c>
       <c r="E21">
-        <v>0.01307823913905431</v>
+        <v>-0.01612465508311715</v>
       </c>
       <c r="F21">
-        <v>0.04808850929963672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01151603937255004</v>
+      </c>
+      <c r="G21">
+        <v>-0.0122316060485454</v>
+      </c>
+      <c r="H21">
+        <v>0.05758079607944404</v>
+      </c>
+      <c r="I21">
+        <v>-0.06065053883721951</v>
+      </c>
+      <c r="J21">
+        <v>-0.05066823472355366</v>
+      </c>
+      <c r="K21">
+        <v>0.04368242886480043</v>
+      </c>
+      <c r="L21">
+        <v>-0.02431040055136927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1161781695435302</v>
+        <v>-0.08888616242544936</v>
       </c>
       <c r="C22">
-        <v>0.1090327562811079</v>
+        <v>0.08794197324386752</v>
       </c>
       <c r="D22">
-        <v>0.02111735772488662</v>
+        <v>0.4310843170714028</v>
       </c>
       <c r="E22">
-        <v>0.008063239295642533</v>
+        <v>-0.1364871214284477</v>
       </c>
       <c r="F22">
-        <v>0.443412404271569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3651020027050129</v>
+      </c>
+      <c r="G22">
+        <v>0.2666213345652609</v>
+      </c>
+      <c r="H22">
+        <v>0.0396197436792455</v>
+      </c>
+      <c r="I22">
+        <v>0.1980784955901443</v>
+      </c>
+      <c r="J22">
+        <v>-0.03303729074043221</v>
+      </c>
+      <c r="K22">
+        <v>-0.03530104087804264</v>
+      </c>
+      <c r="L22">
+        <v>0.06838731359705631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1172030365929102</v>
+        <v>-0.08983878427481008</v>
       </c>
       <c r="C23">
-        <v>0.1080838225060226</v>
+        <v>0.0882544718704911</v>
       </c>
       <c r="D23">
-        <v>0.0191736933836781</v>
+        <v>0.4317008857354414</v>
       </c>
       <c r="E23">
-        <v>0.009155927930248244</v>
+        <v>-0.1378543595379502</v>
       </c>
       <c r="F23">
-        <v>0.4451218097626835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3695206825185934</v>
+      </c>
+      <c r="G23">
+        <v>0.261294094964629</v>
+      </c>
+      <c r="H23">
+        <v>0.0383309693305883</v>
+      </c>
+      <c r="I23">
+        <v>0.1984768474847816</v>
+      </c>
+      <c r="J23">
+        <v>-0.0392271619867153</v>
+      </c>
+      <c r="K23">
+        <v>-0.03742713631627154</v>
+      </c>
+      <c r="L23">
+        <v>0.0688529007782393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07989809048313916</v>
+        <v>-0.08162267596642367</v>
       </c>
       <c r="C24">
-        <v>0.05069065879927823</v>
+        <v>0.05717331669095153</v>
       </c>
       <c r="D24">
-        <v>-0.04456935822239387</v>
+        <v>-0.0140849952555202</v>
       </c>
       <c r="E24">
-        <v>0.03776038436980208</v>
+        <v>-0.02293695890485398</v>
       </c>
       <c r="F24">
-        <v>0.02663010022826994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04663652288224101</v>
+      </c>
+      <c r="G24">
+        <v>-0.07009582323846433</v>
+      </c>
+      <c r="H24">
+        <v>0.001713673177315554</v>
+      </c>
+      <c r="I24">
+        <v>-0.06844170644492548</v>
+      </c>
+      <c r="J24">
+        <v>0.04843294141078176</v>
+      </c>
+      <c r="K24">
+        <v>-0.02100409143866024</v>
+      </c>
+      <c r="L24">
+        <v>-0.03423972563443568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07408334488013731</v>
+        <v>-0.07684738949269182</v>
       </c>
       <c r="C25">
-        <v>0.03775394954086673</v>
+        <v>0.03916749394975414</v>
       </c>
       <c r="D25">
-        <v>-0.05073296502327945</v>
+        <v>-0.02427913351778813</v>
       </c>
       <c r="E25">
-        <v>0.04625228823428033</v>
+        <v>-0.02151542340950453</v>
       </c>
       <c r="F25">
-        <v>0.03576723378602953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04869110443784718</v>
+      </c>
+      <c r="G25">
+        <v>-0.06432969536464217</v>
+      </c>
+      <c r="H25">
+        <v>-0.0179830598035136</v>
+      </c>
+      <c r="I25">
+        <v>-0.08410381738354056</v>
+      </c>
+      <c r="J25">
+        <v>0.0558636567833471</v>
+      </c>
+      <c r="K25">
+        <v>-0.04023503318388885</v>
+      </c>
+      <c r="L25">
+        <v>-0.02324464504303706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05182783986997262</v>
+        <v>-0.04516415631540069</v>
       </c>
       <c r="C26">
-        <v>0.01387420276034097</v>
+        <v>0.02466433691889956</v>
       </c>
       <c r="D26">
-        <v>-0.004670081241582541</v>
+        <v>0.01884693039584068</v>
       </c>
       <c r="E26">
-        <v>0.03484777011582019</v>
+        <v>-0.01038659722837287</v>
       </c>
       <c r="F26">
-        <v>-0.01093252785633699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01559973753159236</v>
+      </c>
+      <c r="G26">
+        <v>-0.02673273276824241</v>
+      </c>
+      <c r="H26">
+        <v>-0.0226421720081493</v>
+      </c>
+      <c r="I26">
+        <v>-0.03603752729372514</v>
+      </c>
+      <c r="J26">
+        <v>-0.02234422687656542</v>
+      </c>
+      <c r="K26">
+        <v>0.1181191261048663</v>
+      </c>
+      <c r="L26">
+        <v>-0.008122447549956618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.05960252245820105</v>
+        <v>-0.09851685138386271</v>
       </c>
       <c r="C28">
-        <v>-0.2965049526237172</v>
+        <v>-0.2967168653203843</v>
       </c>
       <c r="D28">
-        <v>0.05901273197071225</v>
+        <v>0.02442343248175228</v>
       </c>
       <c r="E28">
-        <v>0.07635878751357973</v>
+        <v>-0.03693290854507819</v>
       </c>
       <c r="F28">
-        <v>-0.01597878902056065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.00541669638036225</v>
+      </c>
+      <c r="G28">
+        <v>0.0002597021624918401</v>
+      </c>
+      <c r="H28">
+        <v>0.03418226020995926</v>
+      </c>
+      <c r="I28">
+        <v>0.02803701352278962</v>
+      </c>
+      <c r="J28">
+        <v>-0.01034430554012819</v>
+      </c>
+      <c r="K28">
+        <v>0.06293121724741473</v>
+      </c>
+      <c r="L28">
+        <v>-0.03464883802975709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05488677077224714</v>
+        <v>-0.05218465862892176</v>
       </c>
       <c r="C29">
-        <v>-0.006355480451629579</v>
+        <v>0.01188750082596604</v>
       </c>
       <c r="D29">
-        <v>-0.02590785221890891</v>
+        <v>-0.007774544023698073</v>
       </c>
       <c r="E29">
-        <v>0.01921516075938559</v>
+        <v>-0.02224046641275471</v>
       </c>
       <c r="F29">
-        <v>0.04200673076618151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03932712737072588</v>
+      </c>
+      <c r="G29">
+        <v>-0.03811871451489293</v>
+      </c>
+      <c r="H29">
+        <v>-0.05106523498273722</v>
+      </c>
+      <c r="I29">
+        <v>-0.04443491715899919</v>
+      </c>
+      <c r="J29">
+        <v>-0.01487561771695598</v>
+      </c>
+      <c r="K29">
+        <v>0.03518590017647876</v>
+      </c>
+      <c r="L29">
+        <v>-0.01055930790459369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.15090868202243</v>
+        <v>-0.1255691668857697</v>
       </c>
       <c r="C30">
-        <v>0.05497055913315123</v>
+        <v>0.05886422728000556</v>
       </c>
       <c r="D30">
-        <v>-0.09743398996895726</v>
+        <v>0.002821446483294137</v>
       </c>
       <c r="E30">
-        <v>0.07603935871013477</v>
+        <v>-0.06456569240845125</v>
       </c>
       <c r="F30">
-        <v>0.05791039904828664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1199028966847757</v>
+      </c>
+      <c r="G30">
+        <v>-0.08096196706406794</v>
+      </c>
+      <c r="H30">
+        <v>0.1037649674040107</v>
+      </c>
+      <c r="I30">
+        <v>-0.2349710380352036</v>
+      </c>
+      <c r="J30">
+        <v>0.161181156519531</v>
+      </c>
+      <c r="K30">
+        <v>0.2762161289436561</v>
+      </c>
+      <c r="L30">
+        <v>0.2018815455603216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05863538161583865</v>
+        <v>-0.04628933659493203</v>
       </c>
       <c r="C31">
-        <v>0.01080112517940604</v>
+        <v>0.0386943874330905</v>
       </c>
       <c r="D31">
-        <v>-0.03032646992455208</v>
+        <v>0.00323562639742978</v>
       </c>
       <c r="E31">
-        <v>0.001642357364654654</v>
+        <v>0.005775952727497525</v>
       </c>
       <c r="F31">
-        <v>0.008601130035176964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02259277022716799</v>
+      </c>
+      <c r="G31">
+        <v>-0.004276133886989956</v>
+      </c>
+      <c r="H31">
+        <v>-0.05635515994385319</v>
+      </c>
+      <c r="I31">
+        <v>-0.04850010185248008</v>
+      </c>
+      <c r="J31">
+        <v>-0.01345535914922934</v>
+      </c>
+      <c r="K31">
+        <v>0.01980067877754301</v>
+      </c>
+      <c r="L31">
+        <v>0.01647709887042635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04687781903343888</v>
+        <v>-0.05040813590106805</v>
       </c>
       <c r="C32">
-        <v>0.009644903918434606</v>
+        <v>-0.0007278776032844769</v>
       </c>
       <c r="D32">
-        <v>-0.0119420047799592</v>
+        <v>0.03632523669163701</v>
       </c>
       <c r="E32">
-        <v>-0.004924525420103145</v>
+        <v>-0.009582184586615153</v>
       </c>
       <c r="F32">
-        <v>0.07416918876973813</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0598722572840649</v>
+      </c>
+      <c r="G32">
+        <v>-0.00406437384882186</v>
+      </c>
+      <c r="H32">
+        <v>0.003361583345439127</v>
+      </c>
+      <c r="I32">
+        <v>0.0002627972845259252</v>
+      </c>
+      <c r="J32">
+        <v>0.009276194014741196</v>
+      </c>
+      <c r="K32">
+        <v>0.1387892034856162</v>
+      </c>
+      <c r="L32">
+        <v>0.01928535299402004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1030272407019137</v>
+        <v>-0.1059602217259723</v>
       </c>
       <c r="C33">
-        <v>0.02930835636103119</v>
+        <v>0.04953379736370901</v>
       </c>
       <c r="D33">
-        <v>-0.05527913709871621</v>
+        <v>-0.006957678562235288</v>
       </c>
       <c r="E33">
-        <v>0.01311446608238084</v>
+        <v>0.01803422739133965</v>
       </c>
       <c r="F33">
-        <v>-0.006200832339781459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0443459946088979</v>
+      </c>
+      <c r="G33">
+        <v>-0.03845143848175075</v>
+      </c>
+      <c r="H33">
+        <v>-0.03544241494780664</v>
+      </c>
+      <c r="I33">
+        <v>-0.07582844005406353</v>
+      </c>
+      <c r="J33">
+        <v>0.002785256845160025</v>
+      </c>
+      <c r="K33">
+        <v>0.03187359383423384</v>
+      </c>
+      <c r="L33">
+        <v>-0.05817861575748105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.05952099590116796</v>
+        <v>-0.06761104070248913</v>
       </c>
       <c r="C34">
-        <v>0.05520646993815011</v>
+        <v>0.0459318057178976</v>
       </c>
       <c r="D34">
-        <v>-0.03456367250766765</v>
+        <v>-0.01752898079740609</v>
       </c>
       <c r="E34">
-        <v>0.02446236311521553</v>
+        <v>-0.01115174124414982</v>
       </c>
       <c r="F34">
-        <v>0.0330356397287103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03174624330396692</v>
+      </c>
+      <c r="G34">
+        <v>-0.05603326648864923</v>
+      </c>
+      <c r="H34">
+        <v>-0.02108816328406699</v>
+      </c>
+      <c r="I34">
+        <v>-0.06318508167517946</v>
+      </c>
+      <c r="J34">
+        <v>0.03594213642044369</v>
+      </c>
+      <c r="K34">
+        <v>-0.04211222511870936</v>
+      </c>
+      <c r="L34">
+        <v>-0.04693957630354845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04032737551641368</v>
+        <v>-0.03420903973640629</v>
       </c>
       <c r="C35">
-        <v>0.009546717599610188</v>
+        <v>0.02118340729118237</v>
       </c>
       <c r="D35">
-        <v>-0.02433102617996424</v>
+        <v>-0.006175788882376178</v>
       </c>
       <c r="E35">
-        <v>0.003833927705347759</v>
+        <v>0.006681458193660336</v>
       </c>
       <c r="F35">
-        <v>0.01554558774889847</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02232443525089008</v>
+      </c>
+      <c r="G35">
+        <v>0.006065086036660772</v>
+      </c>
+      <c r="H35">
+        <v>-0.02471237653640289</v>
+      </c>
+      <c r="I35">
+        <v>-0.0676494556377369</v>
+      </c>
+      <c r="J35">
+        <v>0.02855854132706867</v>
+      </c>
+      <c r="K35">
+        <v>0.02274769195399984</v>
+      </c>
+      <c r="L35">
+        <v>0.02394849344086128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03569682791369577</v>
+        <v>-0.03332872609970104</v>
       </c>
       <c r="C36">
-        <v>0.006253519083040794</v>
+        <v>0.01205889143703653</v>
       </c>
       <c r="D36">
-        <v>-0.01202330066966294</v>
+        <v>0.007997949460991426</v>
       </c>
       <c r="E36">
-        <v>0.03247294604496896</v>
+        <v>-0.02191468091221063</v>
       </c>
       <c r="F36">
-        <v>0.02829124204712815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03057152032669546</v>
+      </c>
+      <c r="G36">
+        <v>-0.03364355164267522</v>
+      </c>
+      <c r="H36">
+        <v>-0.01052821066685906</v>
+      </c>
+      <c r="I36">
+        <v>-0.06999711173215585</v>
+      </c>
+      <c r="J36">
+        <v>0.002093021078662285</v>
+      </c>
+      <c r="K36">
+        <v>0.03583352547985336</v>
+      </c>
+      <c r="L36">
+        <v>-0.007106143411785665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06707233019070497</v>
+        <v>-0.05030334682500835</v>
       </c>
       <c r="C38">
-        <v>0.02072629967515683</v>
+        <v>0.04524541780187851</v>
       </c>
       <c r="D38">
-        <v>0.01459223258872857</v>
+        <v>0.0298128473049395</v>
       </c>
       <c r="E38">
-        <v>-0.01629267068641329</v>
+        <v>-0.01644737857054659</v>
       </c>
       <c r="F38">
-        <v>0.05483446104738207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0151145687078013</v>
+      </c>
+      <c r="G38">
+        <v>0.01184583054136406</v>
+      </c>
+      <c r="H38">
+        <v>-0.01566578257630458</v>
+      </c>
+      <c r="I38">
+        <v>0.1323364377152189</v>
+      </c>
+      <c r="J38">
+        <v>0.02751206552662923</v>
+      </c>
+      <c r="K38">
+        <v>0.08617220937450222</v>
+      </c>
+      <c r="L38">
+        <v>-0.0339286713240063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09420007352632466</v>
+        <v>-0.09666527758477929</v>
       </c>
       <c r="C39">
-        <v>0.0492637870089964</v>
+        <v>0.0544853121324913</v>
       </c>
       <c r="D39">
-        <v>-0.05654497433566415</v>
+        <v>-0.01686611108649399</v>
       </c>
       <c r="E39">
-        <v>0.0112470164505857</v>
+        <v>-0.01441263216757914</v>
       </c>
       <c r="F39">
-        <v>0.01788533106516533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04678461271037043</v>
+      </c>
+      <c r="G39">
+        <v>-0.0593404574212562</v>
+      </c>
+      <c r="H39">
+        <v>-0.00219600733361903</v>
+      </c>
+      <c r="I39">
+        <v>-0.08293828908749079</v>
+      </c>
+      <c r="J39">
+        <v>0.1669772259231255</v>
+      </c>
+      <c r="K39">
+        <v>0.01041869190334576</v>
+      </c>
+      <c r="L39">
+        <v>0.03951204795011817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.06887950892131485</v>
+        <v>-0.04209565876437615</v>
       </c>
       <c r="C40">
-        <v>0.006831498477020901</v>
+        <v>0.04267112398185971</v>
       </c>
       <c r="D40">
-        <v>-0.01727553112445018</v>
+        <v>0.05937293433653806</v>
       </c>
       <c r="E40">
-        <v>0.0172856043435583</v>
+        <v>0.0001253602586283882</v>
       </c>
       <c r="F40">
-        <v>0.1121128445895219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03062684885319736</v>
+      </c>
+      <c r="G40">
+        <v>-0.09532347289801066</v>
+      </c>
+      <c r="H40">
+        <v>0.1177664272798717</v>
+      </c>
+      <c r="I40">
+        <v>-0.06699791743737687</v>
+      </c>
+      <c r="J40">
+        <v>0.2473832502399531</v>
+      </c>
+      <c r="K40">
+        <v>0.09043935959855311</v>
+      </c>
+      <c r="L40">
+        <v>-0.05496504701945661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06276854642911235</v>
+        <v>-0.04737528299928095</v>
       </c>
       <c r="C41">
-        <v>0.03491133652620812</v>
+        <v>0.03182072322323562</v>
       </c>
       <c r="D41">
-        <v>-0.02556913309283041</v>
+        <v>-0.01380091390877951</v>
       </c>
       <c r="E41">
-        <v>-0.005396010342641034</v>
+        <v>0.005956701587867528</v>
       </c>
       <c r="F41">
-        <v>0.002725407063855471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01549771428415548</v>
+      </c>
+      <c r="G41">
+        <v>-0.02580210123948216</v>
+      </c>
+      <c r="H41">
+        <v>-0.0293370229039595</v>
+      </c>
+      <c r="I41">
+        <v>-0.006302446750116563</v>
+      </c>
+      <c r="J41">
+        <v>0.03118182888505901</v>
+      </c>
+      <c r="K41">
+        <v>0.04939108185710413</v>
+      </c>
+      <c r="L41">
+        <v>-0.02241596997919041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06454980056545857</v>
+        <v>-0.06074186865803873</v>
       </c>
       <c r="C43">
-        <v>0.01714342695525824</v>
+        <v>0.03768080928912765</v>
       </c>
       <c r="D43">
-        <v>-0.02317112172089177</v>
+        <v>-0.00455528419639532</v>
       </c>
       <c r="E43">
-        <v>0.02116661186254526</v>
+        <v>-0.0211105140283648</v>
       </c>
       <c r="F43">
-        <v>-0.0004129375681770821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01429176388325928</v>
+      </c>
+      <c r="G43">
+        <v>-0.01740001876871557</v>
+      </c>
+      <c r="H43">
+        <v>-0.05235563479587529</v>
+      </c>
+      <c r="I43">
+        <v>-0.01684674581649296</v>
+      </c>
+      <c r="J43">
+        <v>0.01867785059823036</v>
+      </c>
+      <c r="K43">
+        <v>0.0212661480824513</v>
+      </c>
+      <c r="L43">
+        <v>-0.02329504002065251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.08422786717393643</v>
+        <v>-0.08905201699942744</v>
       </c>
       <c r="C44">
-        <v>0.03600105677006414</v>
+        <v>0.05126163349854597</v>
       </c>
       <c r="D44">
-        <v>0.00312305589228597</v>
+        <v>0.02624731206744739</v>
       </c>
       <c r="E44">
-        <v>0.09171119373167622</v>
+        <v>-0.1066111233911686</v>
       </c>
       <c r="F44">
-        <v>0.1149204302384252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.06814276456972804</v>
+      </c>
+      <c r="G44">
+        <v>-0.08750871424536616</v>
+      </c>
+      <c r="H44">
+        <v>-0.03231086616871079</v>
+      </c>
+      <c r="I44">
+        <v>-0.1208901143048455</v>
+      </c>
+      <c r="J44">
+        <v>0.09406589694979406</v>
+      </c>
+      <c r="K44">
+        <v>0.009414134748475706</v>
+      </c>
+      <c r="L44">
+        <v>-0.04056775803424361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.03034103303699105</v>
+        <v>-0.04573277614458716</v>
       </c>
       <c r="C46">
-        <v>0.028329965866325</v>
+        <v>0.03009965265965321</v>
       </c>
       <c r="D46">
-        <v>-0.01643418447497108</v>
+        <v>-0.005949071909148805</v>
       </c>
       <c r="E46">
-        <v>0.01619122436354876</v>
+        <v>-0.02585973607911039</v>
       </c>
       <c r="F46">
-        <v>0.03750922002816792</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04166284369446648</v>
+      </c>
+      <c r="G46">
+        <v>-0.01133877519140171</v>
+      </c>
+      <c r="H46">
+        <v>-0.01916909802921269</v>
+      </c>
+      <c r="I46">
+        <v>-0.03691976012223486</v>
+      </c>
+      <c r="J46">
+        <v>-0.02631983108223199</v>
+      </c>
+      <c r="K46">
+        <v>0.04438349746043813</v>
+      </c>
+      <c r="L46">
+        <v>-0.05364295914591613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03763599697746077</v>
+        <v>-0.04717414792795953</v>
       </c>
       <c r="C47">
-        <v>-0.006328426094731275</v>
+        <v>0.01335867902334149</v>
       </c>
       <c r="D47">
-        <v>-0.00784950981013853</v>
+        <v>0.01449184433229928</v>
       </c>
       <c r="E47">
-        <v>0.01546828974745296</v>
+        <v>-0.004157666400831056</v>
       </c>
       <c r="F47">
-        <v>0.07434346106392745</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04165977919786633</v>
+      </c>
+      <c r="G47">
+        <v>0.001329256017326399</v>
+      </c>
+      <c r="H47">
+        <v>-0.02138121398037725</v>
+      </c>
+      <c r="I47">
+        <v>-0.03321947244665754</v>
+      </c>
+      <c r="J47">
+        <v>-0.0222013343896398</v>
+      </c>
+      <c r="K47">
+        <v>-0.003592253605295036</v>
+      </c>
+      <c r="L47">
+        <v>-3.136845435596923e-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04860662886564615</v>
+        <v>-0.04476336168548943</v>
       </c>
       <c r="C48">
-        <v>0.01134049178871507</v>
+        <v>0.0145294781754008</v>
       </c>
       <c r="D48">
-        <v>-0.02889189695586556</v>
+        <v>0.0152964114650523</v>
       </c>
       <c r="E48">
-        <v>0.02424326521713318</v>
+        <v>-0.006731672261425128</v>
       </c>
       <c r="F48">
-        <v>0.05098039541252373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04273422786036467</v>
+      </c>
+      <c r="G48">
+        <v>-0.01611671657111612</v>
+      </c>
+      <c r="H48">
+        <v>0.003657327871425122</v>
+      </c>
+      <c r="I48">
+        <v>-0.05897209015551838</v>
+      </c>
+      <c r="J48">
+        <v>-0.007552551718946433</v>
+      </c>
+      <c r="K48">
+        <v>0.03807327081646738</v>
+      </c>
+      <c r="L48">
+        <v>0.03180122204241083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1463281449397925</v>
+        <v>-0.205054827086075</v>
       </c>
       <c r="C49">
-        <v>0.02130701032838296</v>
+        <v>0.02895200611601597</v>
       </c>
       <c r="D49">
-        <v>-0.1018897771060904</v>
+        <v>-0.1878696831641629</v>
       </c>
       <c r="E49">
-        <v>0.02464626823114664</v>
+        <v>0.02431987878464264</v>
       </c>
       <c r="F49">
-        <v>-0.1425280216119043</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03091025442426878</v>
+      </c>
+      <c r="G49">
+        <v>0.1670788501184648</v>
+      </c>
+      <c r="H49">
+        <v>0.180745239064582</v>
+      </c>
+      <c r="I49">
+        <v>0.1260207511952028</v>
+      </c>
+      <c r="J49">
+        <v>0.116283489914009</v>
+      </c>
+      <c r="K49">
+        <v>-0.1577442499562516</v>
+      </c>
+      <c r="L49">
+        <v>-0.207377092243548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06429996222817874</v>
+        <v>-0.05447252414626094</v>
       </c>
       <c r="C50">
-        <v>0.01377302136607307</v>
+        <v>0.03487946922871675</v>
       </c>
       <c r="D50">
-        <v>-0.03828980917882856</v>
+        <v>-0.003444568866448233</v>
       </c>
       <c r="E50">
-        <v>0.002819938270162285</v>
+        <v>0.01056857212266413</v>
       </c>
       <c r="F50">
-        <v>0.02729414182981102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03880912998720477</v>
+      </c>
+      <c r="G50">
+        <v>-0.02180043258781393</v>
+      </c>
+      <c r="H50">
+        <v>-0.05393832312669911</v>
+      </c>
+      <c r="I50">
+        <v>-0.04175043888330827</v>
+      </c>
+      <c r="J50">
+        <v>-0.0352619011161139</v>
+      </c>
+      <c r="K50">
+        <v>0.03145660337538646</v>
+      </c>
+      <c r="L50">
+        <v>0.04390176267744274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03854775360011545</v>
+        <v>-0.04069641892592286</v>
       </c>
       <c r="C51">
-        <v>0.006521618016282609</v>
+        <v>0.005790270256194626</v>
       </c>
       <c r="D51">
-        <v>0.008620302887438589</v>
+        <v>0.006373786766788481</v>
       </c>
       <c r="E51">
-        <v>-0.001518481957357525</v>
+        <v>-0.02017287013730365</v>
       </c>
       <c r="F51">
-        <v>0.009021317558478572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03090943937920521</v>
+      </c>
+      <c r="G51">
+        <v>0.0137626118482599</v>
+      </c>
+      <c r="H51">
+        <v>0.0186469823092613</v>
+      </c>
+      <c r="I51">
+        <v>0.009342149092009996</v>
+      </c>
+      <c r="J51">
+        <v>0.0433394523780981</v>
+      </c>
+      <c r="K51">
+        <v>-0.06588512256565528</v>
+      </c>
+      <c r="L51">
+        <v>-0.03333992075531769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1512368288666001</v>
+        <v>-0.1555044781854197</v>
       </c>
       <c r="C53">
-        <v>-0.0342860478561858</v>
+        <v>0.01413892204459942</v>
       </c>
       <c r="D53">
-        <v>-0.07519787106413049</v>
+        <v>-0.07335273256843966</v>
       </c>
       <c r="E53">
-        <v>0.006266096563716809</v>
+        <v>0.01562665147332206</v>
       </c>
       <c r="F53">
-        <v>-0.06042416063863214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.004897353875305782</v>
+      </c>
+      <c r="G53">
+        <v>0.02058642635299573</v>
+      </c>
+      <c r="H53">
+        <v>-0.2417192485781927</v>
+      </c>
+      <c r="I53">
+        <v>0.064058265505044</v>
+      </c>
+      <c r="J53">
+        <v>-0.04079396561438978</v>
+      </c>
+      <c r="K53">
+        <v>-0.05918399449342385</v>
+      </c>
+      <c r="L53">
+        <v>0.04025691749535075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06495639884508936</v>
+        <v>-0.0625976860518181</v>
       </c>
       <c r="C54">
-        <v>0.01967631812387159</v>
+        <v>0.01504202893383919</v>
       </c>
       <c r="D54">
-        <v>-0.003802197053228406</v>
+        <v>0.02154309234751899</v>
       </c>
       <c r="E54">
-        <v>0.04624798468679211</v>
+        <v>-0.0365076868023207</v>
       </c>
       <c r="F54">
-        <v>0.06357915797040556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.05408811562256236</v>
+      </c>
+      <c r="G54">
+        <v>-0.07425650478681647</v>
+      </c>
+      <c r="H54">
+        <v>-0.01026527340079319</v>
+      </c>
+      <c r="I54">
+        <v>-0.1168205214893491</v>
+      </c>
+      <c r="J54">
+        <v>-0.02022209236959247</v>
+      </c>
+      <c r="K54">
+        <v>0.06239314988452452</v>
+      </c>
+      <c r="L54">
+        <v>-0.001274216359541044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09411950247765434</v>
+        <v>-0.09612623405931539</v>
       </c>
       <c r="C55">
-        <v>-0.01260668223262949</v>
+        <v>0.02529188491918476</v>
       </c>
       <c r="D55">
-        <v>-0.05679926938026023</v>
+        <v>-0.05143248062419695</v>
       </c>
       <c r="E55">
-        <v>0.02781311856374649</v>
+        <v>-0.01029571948230918</v>
       </c>
       <c r="F55">
-        <v>0.0116260601099153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01769464502851588</v>
+      </c>
+      <c r="G55">
+        <v>-0.0334042731551672</v>
+      </c>
+      <c r="H55">
+        <v>-0.1760095633672823</v>
+      </c>
+      <c r="I55">
+        <v>-0.003833499780953229</v>
+      </c>
+      <c r="J55">
+        <v>-0.02742966962903554</v>
+      </c>
+      <c r="K55">
+        <v>-0.05397095435668707</v>
+      </c>
+      <c r="L55">
+        <v>0.01539233610682525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1482640223836957</v>
+        <v>-0.1502170046200776</v>
       </c>
       <c r="C56">
-        <v>-0.0418997573301842</v>
+        <v>0.03171229767792676</v>
       </c>
       <c r="D56">
-        <v>-0.08085626884503797</v>
+        <v>-0.0714296702683872</v>
       </c>
       <c r="E56">
-        <v>0.04381466726676071</v>
+        <v>-0.006514064834299687</v>
       </c>
       <c r="F56">
-        <v>-0.06587343837756772</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01670848268191524</v>
+      </c>
+      <c r="G56">
+        <v>0.0006344244060435064</v>
+      </c>
+      <c r="H56">
+        <v>-0.2444761042104757</v>
+      </c>
+      <c r="I56">
+        <v>0.08090894759823083</v>
+      </c>
+      <c r="J56">
+        <v>-0.02375865587077575</v>
+      </c>
+      <c r="K56">
+        <v>-0.02443558835634473</v>
+      </c>
+      <c r="L56">
+        <v>0.07721700860617015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1089311036380322</v>
+        <v>-0.07122501322522712</v>
       </c>
       <c r="C58">
-        <v>0.06204164675487721</v>
+        <v>0.0458155621977318</v>
       </c>
       <c r="D58">
-        <v>0.1713642391409123</v>
+        <v>0.1815892509234099</v>
       </c>
       <c r="E58">
-        <v>0.1118911423327417</v>
+        <v>-0.08472319790501473</v>
       </c>
       <c r="F58">
-        <v>0.2476087294435924</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.08065352840479555</v>
+      </c>
+      <c r="G58">
+        <v>0.1088642142476564</v>
+      </c>
+      <c r="H58">
+        <v>0.1717096284097885</v>
+      </c>
+      <c r="I58">
+        <v>-0.5209019802533571</v>
+      </c>
+      <c r="J58">
+        <v>0.07784018046139365</v>
+      </c>
+      <c r="K58">
+        <v>-0.253967979273645</v>
+      </c>
+      <c r="L58">
+        <v>0.3574335336184499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1556502000266859</v>
+        <v>-0.1859035439461529</v>
       </c>
       <c r="C59">
-        <v>-0.4246430503598151</v>
+        <v>-0.3412827665738814</v>
       </c>
       <c r="D59">
-        <v>0.09680842390145816</v>
+        <v>0.02989456158285451</v>
       </c>
       <c r="E59">
-        <v>0.08474765263994527</v>
+        <v>-0.03182261905416053</v>
       </c>
       <c r="F59">
-        <v>0.02646858634739945</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04477372855879808</v>
+      </c>
+      <c r="G59">
+        <v>-0.02433510444918151</v>
+      </c>
+      <c r="H59">
+        <v>-0.03864077938020972</v>
+      </c>
+      <c r="I59">
+        <v>0.06162982990965155</v>
+      </c>
+      <c r="J59">
+        <v>0.0511606383131586</v>
+      </c>
+      <c r="K59">
+        <v>-0.002508715020112504</v>
+      </c>
+      <c r="L59">
+        <v>-0.006382524621416196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2228063651784342</v>
+        <v>-0.245534462689605</v>
       </c>
       <c r="C60">
-        <v>-0.01710054082943017</v>
+        <v>0.05256394695082755</v>
       </c>
       <c r="D60">
-        <v>-0.1003012769659711</v>
+        <v>-0.1443657548225553</v>
       </c>
       <c r="E60">
-        <v>0.06029171465550318</v>
+        <v>-0.01467521333106547</v>
       </c>
       <c r="F60">
-        <v>-0.0515671014343566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02168843490841487</v>
+      </c>
+      <c r="G60">
+        <v>0.03889623763362803</v>
+      </c>
+      <c r="H60">
+        <v>0.1079504105960487</v>
+      </c>
+      <c r="I60">
+        <v>0.1106283744419536</v>
+      </c>
+      <c r="J60">
+        <v>-0.08243724692691724</v>
+      </c>
+      <c r="K60">
+        <v>-0.1328017123794497</v>
+      </c>
+      <c r="L60">
+        <v>-0.04415966013439901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07988280451909899</v>
+        <v>-0.08776801427903494</v>
       </c>
       <c r="C61">
-        <v>0.02590412796579224</v>
+        <v>0.03881482478467885</v>
       </c>
       <c r="D61">
-        <v>-0.04234469200310885</v>
+        <v>-0.0215244638000894</v>
       </c>
       <c r="E61">
-        <v>0.01113349710810954</v>
+        <v>-0.022174698336361</v>
       </c>
       <c r="F61">
-        <v>0.00556113139788532</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03285197896505065</v>
+      </c>
+      <c r="G61">
+        <v>-0.06970742425727344</v>
+      </c>
+      <c r="H61">
+        <v>-0.05385306278379325</v>
+      </c>
+      <c r="I61">
+        <v>-0.04150636966603766</v>
+      </c>
+      <c r="J61">
+        <v>0.08635239811380804</v>
+      </c>
+      <c r="K61">
+        <v>0.006895728424578842</v>
+      </c>
+      <c r="L61">
+        <v>-0.0019706741859185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1490705061125673</v>
+        <v>-0.1464884343801444</v>
       </c>
       <c r="C62">
-        <v>-0.0203360487731084</v>
+        <v>0.04174212284462836</v>
       </c>
       <c r="D62">
-        <v>-0.05082025578128067</v>
+        <v>-0.06346668161351847</v>
       </c>
       <c r="E62">
-        <v>-0.01246567423481962</v>
+        <v>0.03959401727526451</v>
       </c>
       <c r="F62">
-        <v>-0.09399194365552091</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01302323897909506</v>
+      </c>
+      <c r="G62">
+        <v>-0.02268068579456405</v>
+      </c>
+      <c r="H62">
+        <v>-0.2348976167121399</v>
+      </c>
+      <c r="I62">
+        <v>0.06817205303156185</v>
+      </c>
+      <c r="J62">
+        <v>-0.09079526400189684</v>
+      </c>
+      <c r="K62">
+        <v>-0.03228237440543921</v>
+      </c>
+      <c r="L62">
+        <v>0.05857593287699109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06004466005943605</v>
+        <v>-0.05263969735380319</v>
       </c>
       <c r="C63">
-        <v>0.03017746571302865</v>
+        <v>0.02523218335993531</v>
       </c>
       <c r="D63">
-        <v>-0.0255848484011243</v>
+        <v>0.001753680883186318</v>
       </c>
       <c r="E63">
-        <v>0.01591831328564774</v>
+        <v>0.002825125673477553</v>
       </c>
       <c r="F63">
-        <v>0.009421564057624425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0314222706630865</v>
+      </c>
+      <c r="G63">
+        <v>-0.0516452306648888</v>
+      </c>
+      <c r="H63">
+        <v>-0.01627927801589844</v>
+      </c>
+      <c r="I63">
+        <v>-0.05808195927234059</v>
+      </c>
+      <c r="J63">
+        <v>-0.03035105768107984</v>
+      </c>
+      <c r="K63">
+        <v>0.0337982851480472</v>
+      </c>
+      <c r="L63">
+        <v>0.01306953801020807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09574740652750292</v>
+        <v>-0.1031112987083581</v>
       </c>
       <c r="C64">
-        <v>-0.01406255902782143</v>
+        <v>0.01591480983071043</v>
       </c>
       <c r="D64">
-        <v>-0.05972521558620775</v>
+        <v>-0.0379830313456179</v>
       </c>
       <c r="E64">
-        <v>0.03734973085994293</v>
+        <v>-0.03357549684859579</v>
       </c>
       <c r="F64">
-        <v>0.04605282401396552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07465881550222936</v>
+      </c>
+      <c r="G64">
+        <v>-0.04976737937762996</v>
+      </c>
+      <c r="H64">
+        <v>0.02617694359607308</v>
+      </c>
+      <c r="I64">
+        <v>-0.03233807358817971</v>
+      </c>
+      <c r="J64">
+        <v>0.05300077525177026</v>
+      </c>
+      <c r="K64">
+        <v>0.03517753948421479</v>
+      </c>
+      <c r="L64">
+        <v>-0.004973511556466506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1171536605891463</v>
+        <v>-0.1304210755921544</v>
       </c>
       <c r="C65">
-        <v>0.01291797623371907</v>
+        <v>0.01671643252810522</v>
       </c>
       <c r="D65">
-        <v>-0.04589155814913821</v>
+        <v>-0.05891563902974341</v>
       </c>
       <c r="E65">
-        <v>0.05386842705498576</v>
+        <v>0.00475873629045873</v>
       </c>
       <c r="F65">
-        <v>0.09029616779884587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05979992276909664</v>
+      </c>
+      <c r="G65">
+        <v>-0.08796379182282285</v>
+      </c>
+      <c r="H65">
+        <v>0.190028027306733</v>
+      </c>
+      <c r="I65">
+        <v>-0.194700505847206</v>
+      </c>
+      <c r="J65">
+        <v>-0.6365635303425742</v>
+      </c>
+      <c r="K65">
+        <v>-0.1014506497061741</v>
+      </c>
+      <c r="L65">
+        <v>0.02472779820373841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1576979837624246</v>
+        <v>-0.1410186134083335</v>
       </c>
       <c r="C66">
-        <v>0.08159369771599531</v>
+        <v>0.09977938107900111</v>
       </c>
       <c r="D66">
-        <v>-0.08839743854896322</v>
+        <v>-0.02811549545523805</v>
       </c>
       <c r="E66">
-        <v>0.02585345295159954</v>
+        <v>-0.007773043521255373</v>
       </c>
       <c r="F66">
-        <v>-0.02903769205768332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0461795287291043</v>
+      </c>
+      <c r="G66">
+        <v>-0.09792449941141414</v>
+      </c>
+      <c r="H66">
+        <v>-0.01910193358303043</v>
+      </c>
+      <c r="I66">
+        <v>-0.06863542122239606</v>
+      </c>
+      <c r="J66">
+        <v>0.2497190122505077</v>
+      </c>
+      <c r="K66">
+        <v>0.06849808995217313</v>
+      </c>
+      <c r="L66">
+        <v>-0.01554314208939192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.0991384481792975</v>
+        <v>-0.09842431156629594</v>
       </c>
       <c r="C67">
-        <v>0.02986910421078375</v>
+        <v>0.05257033848807362</v>
       </c>
       <c r="D67">
-        <v>0.01120813908865195</v>
+        <v>0.01093974398951534</v>
       </c>
       <c r="E67">
-        <v>0.004645326622904239</v>
+        <v>-0.04391458191418518</v>
       </c>
       <c r="F67">
-        <v>0.006277070876744586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02659467007047601</v>
+      </c>
+      <c r="G67">
+        <v>-0.01408437540986218</v>
+      </c>
+      <c r="H67">
+        <v>-0.006522606626075894</v>
+      </c>
+      <c r="I67">
+        <v>0.1520347501335938</v>
+      </c>
+      <c r="J67">
+        <v>0.05439384987932543</v>
+      </c>
+      <c r="K67">
+        <v>0.05439584808982949</v>
+      </c>
+      <c r="L67">
+        <v>-0.06721890089021408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05475221988724876</v>
+        <v>-0.08908099728610192</v>
       </c>
       <c r="C68">
-        <v>-0.2537672059631305</v>
+        <v>-0.2768465868284805</v>
       </c>
       <c r="D68">
-        <v>0.06418301338210509</v>
+        <v>0.04589170416456309</v>
       </c>
       <c r="E68">
-        <v>0.03827039566024843</v>
+        <v>-0.02535574503861879</v>
       </c>
       <c r="F68">
-        <v>0.03836569016543694</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01553837979394595</v>
+      </c>
+      <c r="G68">
+        <v>0.01137978519057771</v>
+      </c>
+      <c r="H68">
+        <v>-0.01884229222325506</v>
+      </c>
+      <c r="I68">
+        <v>-0.04499186310555659</v>
+      </c>
+      <c r="J68">
+        <v>-0.04789751327396655</v>
+      </c>
+      <c r="K68">
+        <v>0.01223856244275848</v>
+      </c>
+      <c r="L68">
+        <v>0.03777781802900835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06599387575708844</v>
+        <v>-0.05583520915949414</v>
       </c>
       <c r="C69">
-        <v>0.01368688535844607</v>
+        <v>0.01963815341147138</v>
       </c>
       <c r="D69">
-        <v>-0.002519172333456873</v>
+        <v>0.01415793006320921</v>
       </c>
       <c r="E69">
-        <v>0.01728633781061196</v>
+        <v>0.004102875204580506</v>
       </c>
       <c r="F69">
-        <v>0.01022725571418285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001987954871189204</v>
+      </c>
+      <c r="G69">
+        <v>-0.02216140987224861</v>
+      </c>
+      <c r="H69">
+        <v>-0.03696069681768467</v>
+      </c>
+      <c r="I69">
+        <v>-0.01047867334032618</v>
+      </c>
+      <c r="J69">
+        <v>0.009041664807925507</v>
+      </c>
+      <c r="K69">
+        <v>-0.004164093820421638</v>
+      </c>
+      <c r="L69">
+        <v>0.00631393767036432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01869819798700677</v>
+        <v>-0.04236942086920704</v>
       </c>
       <c r="C70">
-        <v>-0.008228385806675008</v>
+        <v>0.01122271877757606</v>
       </c>
       <c r="D70">
-        <v>-0.001931634824932098</v>
+        <v>-0.02814330324785803</v>
       </c>
       <c r="E70">
-        <v>-0.01256640188373608</v>
+        <v>0.008617717748526507</v>
       </c>
       <c r="F70">
-        <v>-0.004491692534200053</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04150370627748923</v>
+      </c>
+      <c r="G70">
+        <v>-0.01137393506921032</v>
+      </c>
+      <c r="H70">
+        <v>0.02713015035040243</v>
+      </c>
+      <c r="I70">
+        <v>0.02905468388079873</v>
+      </c>
+      <c r="J70">
+        <v>0.02538614126994703</v>
+      </c>
+      <c r="K70">
+        <v>0.1427332729621634</v>
+      </c>
+      <c r="L70">
+        <v>-0.08641236580640627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.0560410339436118</v>
+        <v>-0.1004555833790534</v>
       </c>
       <c r="C71">
-        <v>-0.2736402666348616</v>
+        <v>-0.2918969979873948</v>
       </c>
       <c r="D71">
-        <v>0.06303975047052873</v>
+        <v>0.0305753367720122</v>
       </c>
       <c r="E71">
-        <v>0.07153496771529502</v>
+        <v>-0.04547944112588738</v>
       </c>
       <c r="F71">
-        <v>0.02657266100320744</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02037335776286412</v>
+      </c>
+      <c r="G71">
+        <v>-0.001628101820983864</v>
+      </c>
+      <c r="H71">
+        <v>-0.01139803492051836</v>
+      </c>
+      <c r="I71">
+        <v>-0.02332319213063825</v>
+      </c>
+      <c r="J71">
+        <v>-0.01308601081309518</v>
+      </c>
+      <c r="K71">
+        <v>0.001415857591229114</v>
+      </c>
+      <c r="L71">
+        <v>-0.008470108398995658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1447898464723145</v>
+        <v>-0.1361142201376304</v>
       </c>
       <c r="C72">
-        <v>-0.04911911852699075</v>
+        <v>-0.000925837872363634</v>
       </c>
       <c r="D72">
-        <v>-0.03760806592002514</v>
+        <v>0.01384127493112006</v>
       </c>
       <c r="E72">
-        <v>-0.2393370192866998</v>
+        <v>0.1758180589417097</v>
       </c>
       <c r="F72">
-        <v>0.02358860281104828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.001692292745382072</v>
+      </c>
+      <c r="G72">
+        <v>-0.1223475000092679</v>
+      </c>
+      <c r="H72">
+        <v>-0.02270414544843244</v>
+      </c>
+      <c r="I72">
+        <v>0.02444313656754479</v>
+      </c>
+      <c r="J72">
+        <v>-0.1039936209249559</v>
+      </c>
+      <c r="K72">
+        <v>-0.1308405826978577</v>
+      </c>
+      <c r="L72">
+        <v>-0.09246257440791161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.250043738880176</v>
+        <v>-0.2415925480270222</v>
       </c>
       <c r="C73">
-        <v>0.06229476368470153</v>
+        <v>0.1180911358416174</v>
       </c>
       <c r="D73">
-        <v>-0.1392037381552426</v>
+        <v>-0.2387806358509509</v>
       </c>
       <c r="E73">
-        <v>0.08798700442855795</v>
+        <v>-0.03372958874215667</v>
       </c>
       <c r="F73">
-        <v>-0.1777216103703391</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1658522545081566</v>
+      </c>
+      <c r="G73">
+        <v>0.2634730440055614</v>
+      </c>
+      <c r="H73">
+        <v>0.2876926291570883</v>
+      </c>
+      <c r="I73">
+        <v>0.1296884327369937</v>
+      </c>
+      <c r="J73">
+        <v>0.2133596369445774</v>
+      </c>
+      <c r="K73">
+        <v>-0.4651217990087972</v>
+      </c>
+      <c r="L73">
+        <v>0.1158459964594748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08539809355979225</v>
+        <v>-0.09217764728226675</v>
       </c>
       <c r="C74">
-        <v>-0.02168737222008776</v>
+        <v>0.03316819376129154</v>
       </c>
       <c r="D74">
-        <v>-0.05836733435950268</v>
+        <v>-0.04568856207416661</v>
       </c>
       <c r="E74">
-        <v>0.01098987790021467</v>
+        <v>0.01145303367278039</v>
       </c>
       <c r="F74">
-        <v>0.01197284935294399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02642854451415893</v>
+      </c>
+      <c r="G74">
+        <v>0.02208020705112854</v>
+      </c>
+      <c r="H74">
+        <v>-0.142202339239867</v>
+      </c>
+      <c r="I74">
+        <v>0.007100746177092935</v>
+      </c>
+      <c r="J74">
+        <v>0.01378726462523891</v>
+      </c>
+      <c r="K74">
+        <v>-0.06434149927731218</v>
+      </c>
+      <c r="L74">
+        <v>0.04022993345456383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1202034280618647</v>
+        <v>-0.1040489984798807</v>
       </c>
       <c r="C75">
-        <v>-0.001101078362927183</v>
+        <v>0.03207866864765203</v>
       </c>
       <c r="D75">
-        <v>-0.0008773518393405329</v>
+        <v>0.009532077441633383</v>
       </c>
       <c r="E75">
-        <v>0.02201035884576663</v>
+        <v>0.003724966380003638</v>
       </c>
       <c r="F75">
-        <v>-0.02957343002040685</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03460933649888751</v>
+      </c>
+      <c r="G75">
+        <v>0.012278301576656</v>
+      </c>
+      <c r="H75">
+        <v>-0.1323512882335546</v>
+      </c>
+      <c r="I75">
+        <v>0.02015889724908047</v>
+      </c>
+      <c r="J75">
+        <v>-0.04271600517694629</v>
+      </c>
+      <c r="K75">
+        <v>-0.02081518076271374</v>
+      </c>
+      <c r="L75">
+        <v>0.04940090714028853</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1360338861957409</v>
+        <v>-0.1220194533495188</v>
       </c>
       <c r="C76">
-        <v>-0.01540770097425452</v>
+        <v>0.0498198140045259</v>
       </c>
       <c r="D76">
-        <v>-0.06898724379281226</v>
+        <v>-0.05693614576501695</v>
       </c>
       <c r="E76">
-        <v>0.02284126290718736</v>
+        <v>-0.008199418369420203</v>
       </c>
       <c r="F76">
-        <v>-0.002830167642198156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.02327294369310136</v>
+      </c>
+      <c r="G76">
+        <v>0.007675106387138031</v>
+      </c>
+      <c r="H76">
+        <v>-0.2542953588753434</v>
+      </c>
+      <c r="I76">
+        <v>0.04298371231711769</v>
+      </c>
+      <c r="J76">
+        <v>-0.04645157706653395</v>
+      </c>
+      <c r="K76">
+        <v>-0.03736126306528524</v>
+      </c>
+      <c r="L76">
+        <v>0.1326775636318749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1246822868249821</v>
+        <v>-0.08716477641718846</v>
       </c>
       <c r="C77">
-        <v>0.04135807425636662</v>
+        <v>0.02665765626787701</v>
       </c>
       <c r="D77">
-        <v>0.1102710771296717</v>
+        <v>0.1557363302241622</v>
       </c>
       <c r="E77">
-        <v>0.02190644315371557</v>
+        <v>-0.1132908701372556</v>
       </c>
       <c r="F77">
-        <v>0.2530218473205315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.05695072307574416</v>
+      </c>
+      <c r="G77">
+        <v>-0.6872392596740595</v>
+      </c>
+      <c r="H77">
+        <v>0.2592605860996509</v>
+      </c>
+      <c r="I77">
+        <v>0.431965230389031</v>
+      </c>
+      <c r="J77">
+        <v>0.02956426843838716</v>
+      </c>
+      <c r="K77">
+        <v>-0.07205590613816949</v>
+      </c>
+      <c r="L77">
+        <v>0.2278542266404368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1238881001122414</v>
+        <v>-0.1615431250597618</v>
       </c>
       <c r="C78">
-        <v>0.06175371391487522</v>
+        <v>0.08060174220036995</v>
       </c>
       <c r="D78">
-        <v>-0.05094954193930567</v>
+        <v>0.03112222443054947</v>
       </c>
       <c r="E78">
-        <v>0.02455429793749673</v>
+        <v>-0.09123010614093864</v>
       </c>
       <c r="F78">
-        <v>0.09071428443299991</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1466277433459337</v>
+      </c>
+      <c r="G78">
+        <v>-0.03005483325215861</v>
+      </c>
+      <c r="H78">
+        <v>0.09681672069450956</v>
+      </c>
+      <c r="I78">
+        <v>-0.03737048691850845</v>
+      </c>
+      <c r="J78">
+        <v>0.004940538682543091</v>
+      </c>
+      <c r="K78">
+        <v>-0.05572135362369315</v>
+      </c>
+      <c r="L78">
+        <v>-0.5557529235127053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.144367369799</v>
+        <v>-0.1416311288033824</v>
       </c>
       <c r="C79">
-        <v>0.008286797414822593</v>
+        <v>0.04434241204636696</v>
       </c>
       <c r="D79">
-        <v>-0.06973623930466002</v>
+        <v>-0.04777290828113277</v>
       </c>
       <c r="E79">
-        <v>0.006643590462069929</v>
+        <v>0.001224158701960343</v>
       </c>
       <c r="F79">
-        <v>-0.06925200854760387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01563528115534906</v>
+      </c>
+      <c r="G79">
+        <v>-0.0250534706327936</v>
+      </c>
+      <c r="H79">
+        <v>-0.1905807382764867</v>
+      </c>
+      <c r="I79">
+        <v>0.0634080710706451</v>
+      </c>
+      <c r="J79">
+        <v>-0.06533373302457374</v>
+      </c>
+      <c r="K79">
+        <v>-0.0328695394335777</v>
+      </c>
+      <c r="L79">
+        <v>0.04770517647969859</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03584995525625928</v>
+        <v>-0.04429513807573838</v>
       </c>
       <c r="C80">
-        <v>0.02241181754578322</v>
+        <v>0.01229780374220158</v>
       </c>
       <c r="D80">
-        <v>-0.01913122385156904</v>
+        <v>-0.05798086383673234</v>
       </c>
       <c r="E80">
-        <v>0.0006214850883236241</v>
+        <v>0.01425330517961811</v>
       </c>
       <c r="F80">
-        <v>0.005062767512511879</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02050026614280262</v>
+      </c>
+      <c r="G80">
+        <v>-0.002345146793609393</v>
+      </c>
+      <c r="H80">
+        <v>0.03354581220386465</v>
+      </c>
+      <c r="I80">
+        <v>-0.07112229970351092</v>
+      </c>
+      <c r="J80">
+        <v>0.03735924699210214</v>
+      </c>
+      <c r="K80">
+        <v>0.0228822158935136</v>
+      </c>
+      <c r="L80">
+        <v>-0.0762886359342822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1355633998510972</v>
+        <v>-0.132889199244776</v>
       </c>
       <c r="C81">
-        <v>-0.001475901324843479</v>
+        <v>0.02082739333409203</v>
       </c>
       <c r="D81">
-        <v>-0.06634692467212749</v>
+        <v>-0.03565277259228938</v>
       </c>
       <c r="E81">
-        <v>0.03142061770723076</v>
+        <v>0.001835889982689284</v>
       </c>
       <c r="F81">
-        <v>-0.03535772641348806</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.0243385540782688</v>
+      </c>
+      <c r="G81">
+        <v>-0.002415436695056441</v>
+      </c>
+      <c r="H81">
+        <v>-0.1465860236163401</v>
+      </c>
+      <c r="I81">
+        <v>0.02007813267998593</v>
+      </c>
+      <c r="J81">
+        <v>0.0289285638385267</v>
+      </c>
+      <c r="K81">
+        <v>0.01863874428785909</v>
+      </c>
+      <c r="L81">
+        <v>0.03856388487828102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1196365232139662</v>
+        <v>-0.1239263577633954</v>
       </c>
       <c r="C82">
-        <v>0.01621249329070401</v>
+        <v>0.03246320957866064</v>
       </c>
       <c r="D82">
-        <v>-0.03924676352672748</v>
+        <v>-0.04262785047048615</v>
       </c>
       <c r="E82">
-        <v>0.0349916632818933</v>
+        <v>0.006646704107720189</v>
       </c>
       <c r="F82">
-        <v>-0.06926110407359877</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.006066483533321412</v>
+      </c>
+      <c r="G82">
+        <v>0.01580857164755588</v>
+      </c>
+      <c r="H82">
+        <v>-0.2823771538967552</v>
+      </c>
+      <c r="I82">
+        <v>0.04628311465114657</v>
+      </c>
+      <c r="J82">
+        <v>0.0158650701125443</v>
+      </c>
+      <c r="K82">
+        <v>0.008046193680455394</v>
+      </c>
+      <c r="L82">
+        <v>0.0858629169997942</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05448199106651768</v>
+        <v>-0.0759312711280541</v>
       </c>
       <c r="C83">
-        <v>0.03272845118904404</v>
+        <v>0.03967796118327156</v>
       </c>
       <c r="D83">
-        <v>0.0717198859117523</v>
+        <v>0.01294146008389386</v>
       </c>
       <c r="E83">
-        <v>0.004373115098920737</v>
+        <v>-0.01734965358516349</v>
       </c>
       <c r="F83">
-        <v>-0.08217158528156782</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08909861787756986</v>
+      </c>
+      <c r="G83">
+        <v>0.03248060523220991</v>
+      </c>
+      <c r="H83">
+        <v>0.05571981233836028</v>
+      </c>
+      <c r="I83">
+        <v>-0.07374901423074279</v>
+      </c>
+      <c r="J83">
+        <v>0.03669856457060566</v>
+      </c>
+      <c r="K83">
+        <v>0.05261382524260605</v>
+      </c>
+      <c r="L83">
+        <v>-0.08311747921397802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04796948590009053</v>
+        <v>-0.03118838823169791</v>
       </c>
       <c r="C84">
-        <v>0.003850308622356732</v>
+        <v>0.04242859879487194</v>
       </c>
       <c r="D84">
-        <v>-0.05031287684811103</v>
+        <v>0.008569157868971432</v>
       </c>
       <c r="E84">
-        <v>-0.01990165449937863</v>
+        <v>0.03522226597042136</v>
       </c>
       <c r="F84">
-        <v>0.003893049963445736</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05522517279764899</v>
+      </c>
+      <c r="G84">
+        <v>0.04008682974944289</v>
+      </c>
+      <c r="H84">
+        <v>-0.02046933765926558</v>
+      </c>
+      <c r="I84">
+        <v>-0.09294241368629229</v>
+      </c>
+      <c r="J84">
+        <v>0.03425317795915678</v>
+      </c>
+      <c r="K84">
+        <v>0.08957970123130529</v>
+      </c>
+      <c r="L84">
+        <v>-0.04262870838530825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1074843901658623</v>
+        <v>-0.1191857610509963</v>
       </c>
       <c r="C85">
-        <v>0.02457745053888875</v>
+        <v>0.03426875438286026</v>
       </c>
       <c r="D85">
-        <v>-0.03330338694325963</v>
+        <v>-0.0384835669227553</v>
       </c>
       <c r="E85">
-        <v>0.06265011979761866</v>
+        <v>-0.04185199892668928</v>
       </c>
       <c r="F85">
-        <v>-0.004791073040933497</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.009542502809188331</v>
+      </c>
+      <c r="G85">
+        <v>-0.01463484255847712</v>
+      </c>
+      <c r="H85">
+        <v>-0.1982076972049017</v>
+      </c>
+      <c r="I85">
+        <v>0.03449820305868667</v>
+      </c>
+      <c r="J85">
+        <v>-0.05961603794762514</v>
+      </c>
+      <c r="K85">
+        <v>-0.02969245143841624</v>
+      </c>
+      <c r="L85">
+        <v>0.03594325112483281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.0741403696341216</v>
+        <v>-0.06781179334235811</v>
       </c>
       <c r="C86">
-        <v>0.06998208043056565</v>
+        <v>0.0416355565481714</v>
       </c>
       <c r="D86">
-        <v>-0.03934988848661414</v>
+        <v>0.02006005177943719</v>
       </c>
       <c r="E86">
-        <v>0.01133338788767045</v>
+        <v>-0.02275447351333281</v>
       </c>
       <c r="F86">
-        <v>0.02960624125865302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03848084197011415</v>
+      </c>
+      <c r="G86">
+        <v>0.01930593495521513</v>
+      </c>
+      <c r="H86">
+        <v>0.03079759263944</v>
+      </c>
+      <c r="I86">
+        <v>0.01856373217591963</v>
+      </c>
+      <c r="J86">
+        <v>-0.0003070442646782686</v>
+      </c>
+      <c r="K86">
+        <v>0.07864155163949127</v>
+      </c>
+      <c r="L86">
+        <v>-0.4355435979015064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1200312937100745</v>
+        <v>-0.1227450014603553</v>
       </c>
       <c r="C87">
-        <v>0.05343668794028395</v>
+        <v>0.06928168454785281</v>
       </c>
       <c r="D87">
-        <v>-0.05363396993559687</v>
+        <v>0.01192460693583378</v>
       </c>
       <c r="E87">
-        <v>0.044503772472454</v>
+        <v>-0.02742975942652185</v>
       </c>
       <c r="F87">
-        <v>0.1646902569951547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08747538570181104</v>
+      </c>
+      <c r="G87">
+        <v>-0.2000223374843088</v>
+      </c>
+      <c r="H87">
+        <v>0.0996679213202474</v>
+      </c>
+      <c r="I87">
+        <v>0.05729428220488936</v>
+      </c>
+      <c r="J87">
+        <v>0.02724955888553609</v>
+      </c>
+      <c r="K87">
+        <v>0.01731594530789374</v>
+      </c>
+      <c r="L87">
+        <v>0.06569805247666155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05772235557005292</v>
+        <v>-0.0642902415244616</v>
       </c>
       <c r="C88">
-        <v>0.02211228198698886</v>
+        <v>0.03989984896733025</v>
       </c>
       <c r="D88">
-        <v>-0.03191748742726098</v>
+        <v>-0.03823558313389962</v>
       </c>
       <c r="E88">
-        <v>0.01263232275762214</v>
+        <v>-0.006355512611865273</v>
       </c>
       <c r="F88">
-        <v>0.01071167783622135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01190290711516098</v>
+      </c>
+      <c r="G88">
+        <v>-0.02251679863448985</v>
+      </c>
+      <c r="H88">
+        <v>-0.01318011932387374</v>
+      </c>
+      <c r="I88">
+        <v>-0.04011160689069274</v>
+      </c>
+      <c r="J88">
+        <v>0.03887968989709976</v>
+      </c>
+      <c r="K88">
+        <v>0.03373928431644475</v>
+      </c>
+      <c r="L88">
+        <v>-0.01696905043967727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.09139724883260388</v>
+        <v>-0.1600997510996816</v>
       </c>
       <c r="C89">
-        <v>-0.3289267424314292</v>
+        <v>-0.3774006580944015</v>
       </c>
       <c r="D89">
-        <v>0.09169511056877827</v>
+        <v>0.02570448503091851</v>
       </c>
       <c r="E89">
-        <v>0.1088194951505101</v>
+        <v>-0.08990157447528467</v>
       </c>
       <c r="F89">
-        <v>0.05180914408029659</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.007532324928245317</v>
+      </c>
+      <c r="G89">
+        <v>0.03647148505762615</v>
+      </c>
+      <c r="H89">
+        <v>0.01876301668680716</v>
+      </c>
+      <c r="I89">
+        <v>-0.0623943125787352</v>
+      </c>
+      <c r="J89">
+        <v>0.08984184729341677</v>
+      </c>
+      <c r="K89">
+        <v>-0.01676426098738852</v>
+      </c>
+      <c r="L89">
+        <v>0.009473499035943319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.07926134365225029</v>
+        <v>-0.1129770470699101</v>
       </c>
       <c r="C90">
-        <v>-0.2782880513822019</v>
+        <v>-0.2777321991499014</v>
       </c>
       <c r="D90">
-        <v>0.09218436713511396</v>
+        <v>0.03704704318283424</v>
       </c>
       <c r="E90">
-        <v>0.04949365567563539</v>
+        <v>-0.03803318584669593</v>
       </c>
       <c r="F90">
-        <v>0.04790982170078027</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01905319463301708</v>
+      </c>
+      <c r="G90">
+        <v>-0.02644731251545109</v>
+      </c>
+      <c r="H90">
+        <v>0.03899320207642809</v>
+      </c>
+      <c r="I90">
+        <v>-0.04346109471720216</v>
+      </c>
+      <c r="J90">
+        <v>0.05992156523872815</v>
+      </c>
+      <c r="K90">
+        <v>-0.01057477538612575</v>
+      </c>
+      <c r="L90">
+        <v>-0.004283034837789025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.09756533049301698</v>
+        <v>-0.08573864718101223</v>
       </c>
       <c r="C91">
-        <v>0.006025185632903749</v>
+        <v>0.037870446313544</v>
       </c>
       <c r="D91">
-        <v>-0.02854325256592029</v>
+        <v>-0.00566183535767193</v>
       </c>
       <c r="E91">
-        <v>0.01167447559350033</v>
+        <v>-0.0002548493621652094</v>
       </c>
       <c r="F91">
-        <v>-0.0009435247361925614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.006177821474930416</v>
+      </c>
+      <c r="G91">
+        <v>0.02536924674100039</v>
+      </c>
+      <c r="H91">
+        <v>-0.09159575840130851</v>
+      </c>
+      <c r="I91">
+        <v>0.01616604892123772</v>
+      </c>
+      <c r="J91">
+        <v>-0.02390968405753876</v>
+      </c>
+      <c r="K91">
+        <v>-0.03531581244606878</v>
+      </c>
+      <c r="L91">
+        <v>0.07796674913214903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.06351999147552043</v>
+        <v>-0.1162856193715455</v>
       </c>
       <c r="C92">
-        <v>-0.3295768396740701</v>
+        <v>-0.3327917528834182</v>
       </c>
       <c r="D92">
-        <v>0.05895754449700252</v>
+        <v>0.02271083224864517</v>
       </c>
       <c r="E92">
-        <v>0.08254883108678077</v>
+        <v>-0.05029577833218858</v>
       </c>
       <c r="F92">
-        <v>0.01257223299533358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.02382981003752158</v>
+      </c>
+      <c r="G92">
+        <v>0.02497135520011918</v>
+      </c>
+      <c r="H92">
+        <v>-0.01795007570641322</v>
+      </c>
+      <c r="I92">
+        <v>-0.01700847760632918</v>
+      </c>
+      <c r="J92">
+        <v>0.0232225812631116</v>
+      </c>
+      <c r="K92">
+        <v>0.004200065678429979</v>
+      </c>
+      <c r="L92">
+        <v>-0.02277463024005185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.06713836804193654</v>
+        <v>-0.1192775577754243</v>
       </c>
       <c r="C93">
-        <v>-0.2779789330647653</v>
+        <v>-0.3041102997981348</v>
       </c>
       <c r="D93">
-        <v>0.05131792303852568</v>
+        <v>0.008016454766143722</v>
       </c>
       <c r="E93">
-        <v>0.04987367006523848</v>
+        <v>-0.02331999053364103</v>
       </c>
       <c r="F93">
-        <v>0.0279666682634452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0007711491602502622</v>
+      </c>
+      <c r="G93">
+        <v>0.001857353536998029</v>
+      </c>
+      <c r="H93">
+        <v>0.01326490666275998</v>
+      </c>
+      <c r="I93">
+        <v>-0.001984664065455511</v>
+      </c>
+      <c r="J93">
+        <v>-0.002360911295610557</v>
+      </c>
+      <c r="K93">
+        <v>0.03589865649120743</v>
+      </c>
+      <c r="L93">
+        <v>-0.001059037258510926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1222196006361447</v>
+        <v>-0.1194145252358272</v>
       </c>
       <c r="C94">
-        <v>0.05212796885137619</v>
+        <v>0.06429085255899467</v>
       </c>
       <c r="D94">
-        <v>-0.04097423751250534</v>
+        <v>-0.01219199012068908</v>
       </c>
       <c r="E94">
-        <v>0.03422451056322511</v>
+        <v>-0.02609377528502524</v>
       </c>
       <c r="F94">
-        <v>-0.008575687673438958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.0008365390101534831</v>
+      </c>
+      <c r="G94">
+        <v>0.05321809205599796</v>
+      </c>
+      <c r="H94">
+        <v>-0.128830421545121</v>
+      </c>
+      <c r="I94">
+        <v>1.728139582745648e-05</v>
+      </c>
+      <c r="J94">
+        <v>-0.02647146687764936</v>
+      </c>
+      <c r="K94">
+        <v>-0.03258985492794216</v>
+      </c>
+      <c r="L94">
+        <v>0.05662290363627925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1223900701647431</v>
+        <v>-0.1341723328565074</v>
       </c>
       <c r="C95">
-        <v>0.0863393751512042</v>
+        <v>0.07988037677434519</v>
       </c>
       <c r="D95">
-        <v>-0.098672148757678</v>
+        <v>-0.03105057712171743</v>
       </c>
       <c r="E95">
-        <v>0.08132199092027928</v>
+        <v>-0.0523294347641911</v>
       </c>
       <c r="F95">
-        <v>-0.02830029983685147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07485494732261118</v>
+      </c>
+      <c r="G95">
+        <v>-0.03651136717596685</v>
+      </c>
+      <c r="H95">
+        <v>0.1255210621283854</v>
+      </c>
+      <c r="I95">
+        <v>-0.06606899255962068</v>
+      </c>
+      <c r="J95">
+        <v>0.002113419567025036</v>
+      </c>
+      <c r="K95">
+        <v>-0.02006996622373254</v>
+      </c>
+      <c r="L95">
+        <v>0.04068145350112273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2528095941887178</v>
+        <v>-0.1872225978831372</v>
       </c>
       <c r="C97">
-        <v>-0.1400857957773195</v>
+        <v>-0.02750599122660222</v>
       </c>
       <c r="D97">
-        <v>-0.05498458879996057</v>
+        <v>0.2711089665423649</v>
       </c>
       <c r="E97">
-        <v>-0.8870661982073369</v>
+        <v>0.8984435225250424</v>
       </c>
       <c r="F97">
-        <v>0.05074632441736215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.05356873116274428</v>
+      </c>
+      <c r="G97">
+        <v>-0.03648541608031799</v>
+      </c>
+      <c r="H97">
+        <v>0.06141573405216917</v>
+      </c>
+      <c r="I97">
+        <v>-0.03388309429246902</v>
+      </c>
+      <c r="J97">
+        <v>0.07150313292041297</v>
+      </c>
+      <c r="K97">
+        <v>-0.04033404014009326</v>
+      </c>
+      <c r="L97">
+        <v>0.002303057753478107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.287124519939144</v>
+        <v>-0.2803740744609405</v>
       </c>
       <c r="C98">
-        <v>0.06633924941900697</v>
+        <v>0.1066782335635938</v>
       </c>
       <c r="D98">
-        <v>-0.01392240268309954</v>
+        <v>-0.1348556144549773</v>
       </c>
       <c r="E98">
-        <v>0.07367823380781142</v>
+        <v>0.05297647930798505</v>
       </c>
       <c r="F98">
-        <v>-0.4842555172430053</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.254284765509272</v>
+      </c>
+      <c r="G98">
+        <v>0.3023401561996096</v>
+      </c>
+      <c r="H98">
+        <v>0.2639903368491032</v>
+      </c>
+      <c r="I98">
+        <v>0.1853587306184427</v>
+      </c>
+      <c r="J98">
+        <v>-0.1036750537313278</v>
+      </c>
+      <c r="K98">
+        <v>0.6121234236918087</v>
+      </c>
+      <c r="L98">
+        <v>0.2049961866652209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2744860677849767</v>
+        <v>-0.1623823323039559</v>
       </c>
       <c r="C99">
-        <v>0.2532415264343103</v>
+        <v>0.133476015595071</v>
       </c>
       <c r="D99">
-        <v>0.8559036192136705</v>
+        <v>0.5405396690261025</v>
       </c>
       <c r="E99">
-        <v>-0.03804556631787263</v>
+        <v>-0.1515289963197043</v>
       </c>
       <c r="F99">
-        <v>-0.1494226825346424</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6905930262853108</v>
+      </c>
+      <c r="G99">
+        <v>-0.01104324777474901</v>
+      </c>
+      <c r="H99">
+        <v>-0.1366404555617903</v>
+      </c>
+      <c r="I99">
+        <v>-0.08074730433419429</v>
+      </c>
+      <c r="J99">
+        <v>-0.06445770333132902</v>
+      </c>
+      <c r="K99">
+        <v>-0.03046875543861685</v>
+      </c>
+      <c r="L99">
+        <v>-0.1741388186327941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05493063450024679</v>
+        <v>-0.05226416359234895</v>
       </c>
       <c r="C101">
-        <v>-0.005865675803881482</v>
+        <v>0.01180063638387495</v>
       </c>
       <c r="D101">
-        <v>-0.02613296920351315</v>
+        <v>-0.008792062121781729</v>
       </c>
       <c r="E101">
-        <v>0.02006685772732695</v>
+        <v>-0.02342496176134256</v>
       </c>
       <c r="F101">
-        <v>0.04018536842939541</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03894088148256244</v>
+      </c>
+      <c r="G101">
+        <v>-0.03692789155258101</v>
+      </c>
+      <c r="H101">
+        <v>-0.05119681624903606</v>
+      </c>
+      <c r="I101">
+        <v>-0.04249913586890802</v>
+      </c>
+      <c r="J101">
+        <v>-0.01218467156898355</v>
+      </c>
+      <c r="K101">
+        <v>0.03351686489732794</v>
+      </c>
+      <c r="L101">
+        <v>-0.0129422338524813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
